--- a/data_discrete/singlet_gap.xlsx
+++ b/data_discrete/singlet_gap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiqi/Documents/hkust/research/fuzzysphere/mott_jain/data_discrete/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E69DA7-501D-2343-BF2D-544479E5B6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE403E61-76ED-DB45-BE35-A03306D6C34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2060" windowWidth="28040" windowHeight="17440" xr2:uid="{D4486975-8AB4-0C47-854B-43662A3A1550}"/>
   </bookViews>
@@ -33,14 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>mu</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,16 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4009C0-4E35-534A-A023-57570A4BC660}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1">
@@ -445,8 +437,11 @@
       <c r="D1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>-0.2</v>
       </c>
@@ -459,8 +454,11 @@
       <c r="D2" s="2">
         <v>0.59652150000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>0.58500419999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-0.18974360000000001</v>
       </c>
@@ -473,8 +471,11 @@
       <c r="D3" s="2">
         <v>0.56728179999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <v>0.55585770000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>-0.17948720000000001</v>
       </c>
@@ -487,8 +488,11 @@
       <c r="D4" s="2">
         <v>0.53822179999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>0.52690570000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>-0.16923079999999999</v>
       </c>
@@ -501,8 +505,11 @@
       <c r="D5" s="2">
         <v>0.50937350000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>0.4981834</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>-0.15897439999999999</v>
       </c>
@@ -515,8 +522,11 @@
       <c r="D6" s="2">
         <v>0.48077579999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>0.46973419999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>-0.14871789999999999</v>
       </c>
@@ -529,8 +539,11 @@
       <c r="D7" s="2">
         <v>0.45247799999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <v>0.44161210000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>-0.13846149999999999</v>
       </c>
@@ -543,8 +556,11 @@
       <c r="D8" s="2">
         <v>0.42454120000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>0.41388540000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>-0.12820509999999999</v>
       </c>
@@ -557,8 +573,11 @@
       <c r="D9" s="2">
         <v>0.39704319999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <v>0.38664009999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>-0.1179487</v>
       </c>
@@ -571,8 +590,11 @@
       <c r="D10" s="2">
         <v>0.37008269999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10">
+        <v>0.35998599999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>-0.1076923</v>
       </c>
@@ -585,8 +607,11 @@
       <c r="D11" s="2">
         <v>0.34378619999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>0.33406340000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>-9.7435900000000006E-2</v>
       </c>
@@ -599,8 +624,11 @@
       <c r="D12" s="2">
         <v>0.31831569999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0.30905100000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>-8.7179499999999993E-2</v>
       </c>
@@ -613,8 +641,11 @@
       <c r="D13" s="2">
         <v>0.29387790000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0.28517540000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>-7.6923099999999994E-2</v>
       </c>
@@ -627,8 +658,11 @@
       <c r="D14" s="2">
         <v>0.27073370000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0.26271800000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>-6.6666699999999995E-2</v>
       </c>
@@ -641,8 +675,11 @@
       <c r="D15" s="2">
         <v>0.24920300000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0.24201539999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>-5.6410299999999997E-2</v>
       </c>
@@ -655,8 +692,11 @@
       <c r="D16" s="2">
         <v>0.22965720000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>0.22344269999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>-4.6153800000000002E-2</v>
       </c>
@@ -669,8 +709,11 @@
       <c r="D17" s="2">
         <v>0.21248600000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>0.20736460000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>-3.5897400000000003E-2</v>
       </c>
@@ -683,8 +726,11 @@
       <c r="D18" s="2">
         <v>0.19802210000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>0.1940452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>-2.5641000000000001E-2</v>
       </c>
@@ -697,8 +743,11 @@
       <c r="D19" s="2">
         <v>0.1864239</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19">
+        <v>0.18352579999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>-1.53846E-2</v>
       </c>
@@ -711,8 +760,11 @@
       <c r="D20" s="2">
         <v>0.1775505</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20">
+        <v>0.1755224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>-5.1282000000000003E-3</v>
       </c>
@@ -725,8 +777,11 @@
       <c r="D21" s="2">
         <v>0.1708981</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21">
+        <v>0.16941390000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>5.1282000000000003E-3</v>
       </c>
@@ -739,8 +794,11 @@
       <c r="D22" s="2">
         <v>0.16566210000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>0.16436029999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>1.53846E-2</v>
       </c>
@@ -753,8 +811,11 @@
       <c r="D23" s="2">
         <v>0.1609303</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23">
+        <v>0.15949350000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>2.5641000000000001E-2</v>
       </c>
@@ -767,8 +828,11 @@
       <c r="D24" s="2">
         <v>0.15580649999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>0.15406259999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3.5897400000000003E-2</v>
       </c>
@@ -781,8 +845,11 @@
       <c r="D25" s="2">
         <v>0.14964350000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25">
+        <v>0.1473978</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>4.6153800000000002E-2</v>
       </c>
@@ -795,8 +862,11 @@
       <c r="D26" s="2">
         <v>0.14285900000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>0.13931660000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>5.6410299999999997E-2</v>
       </c>
@@ -809,8 +879,11 @@
       <c r="D27" s="2">
         <v>0.13484750000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27">
+        <v>0.13022539999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>6.6666699999999995E-2</v>
       </c>
@@ -823,8 +896,11 @@
       <c r="D28" s="2">
         <v>0.1188299</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>0.1154187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>7.6923099999999994E-2</v>
       </c>
@@ -838,7 +914,7 @@
         <v>9.7285700000000003E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>8.7179499999999993E-2</v>
       </c>
@@ -852,7 +928,7 @@
         <v>8.3538100000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>9.7435900000000006E-2</v>
       </c>
@@ -865,8 +941,11 @@
       <c r="D31" s="2">
         <v>8.4771899999999997E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>7.75285E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.1076923</v>
       </c>
@@ -879,8 +958,11 @@
       <c r="D32" s="2">
         <v>9.9658200000000002E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>9.3455700000000003E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.1179487</v>
       </c>
@@ -893,8 +975,11 @@
       <c r="D33" s="2">
         <v>0.1225697</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33">
+        <v>0.11762209999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.12820509999999999</v>
       </c>
@@ -907,8 +992,11 @@
       <c r="D34" s="2">
         <v>0.14940410000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>0.1454327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.13846149999999999</v>
       </c>
@@ -921,8 +1009,11 @@
       <c r="D35" s="2">
         <v>0.17813889999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35">
+        <v>0.17486570000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.14871789999999999</v>
       </c>
@@ -935,8 +1026,11 @@
       <c r="D36" s="2">
         <v>0.2078392</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>0.205065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.15897439999999999</v>
       </c>
@@ -949,8 +1043,11 @@
       <c r="D37" s="2">
         <v>0.23805680000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37">
+        <v>0.2356463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.16923079999999999</v>
       </c>
@@ -963,8 +1060,11 @@
       <c r="D38" s="2">
         <v>0.26856370000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>0.26642470000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.17948720000000001</v>
       </c>
@@ -977,8 +1077,11 @@
       <c r="D39" s="2">
         <v>0.29923749999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39">
+        <v>0.29730630000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.18974360000000001</v>
       </c>
@@ -991,8 +1094,11 @@
       <c r="D40" s="2">
         <v>0.33000980000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0.32824009999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.2</v>
       </c>
@@ -1004,6 +1110,9 @@
       </c>
       <c r="D41" s="2">
         <v>0.36084060000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.35696339999999999</v>
       </c>
     </row>
   </sheetData>
